--- a/data/trans_orig/P1201-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1201-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4091A863-36EE-4045-92E4-62C00E6BE7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E32240-EA31-4C1B-B29D-2280C2AB06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FE9948E-8A56-45A9-B8A1-2560AD5E42FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53029C31-3C75-4E60-8FC1-CE29A7B3FCFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="762">
   <si>
     <t>Población según frecuencia de sentirse calmado y tranquilo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2214 +77,2175 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,17%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Sólo alguna vez</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>Algunas Veces</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>Muchas Veces</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>Casi Siempre</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse calmado y tranquilo en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse calmado y tranquilo en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Sólo alguna vez</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>Algunas Veces</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>Muchas Veces</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>Casi Siempre</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse calmado y tranquilo en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse calmado y tranquilo en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse calmado y tranquilo en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse calmado y tranquilo en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
     <t>4,08%</t>
   </si>
   <si>
@@ -2315,9 +2276,6 @@
     <t>11,47%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
     <t>13,55%</t>
   </si>
   <si>
@@ -2339,9 +2297,6 @@
     <t>27,74%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
     <t>29,02%</t>
   </si>
   <si>
@@ -2370,9 +2325,6 @@
   </si>
   <si>
     <t>35,96%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF2799C-F894-4D9B-BA24-3DE299985582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED88E1-8E70-47C5-88AD-CCA51703F62B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2941,16 +2893,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>44</v>
@@ -2959,13 +2911,13 @@
         <v>43750</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>66</v>
@@ -2974,13 +2926,13 @@
         <v>68397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>110</v>
@@ -2989,13 +2941,13 @@
         <v>112147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,10 +3237,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -3297,19 +3249,19 @@
         <v>43872</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>43</v>
@@ -3318,7 +3270,7 @@
         <v>42612</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>80</v>
@@ -3468,7 +3420,7 @@
         <v>769</v>
       </c>
       <c r="D15" s="7">
-        <v>780981</v>
+        <v>780982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>106</v>
@@ -3519,7 +3471,7 @@
         <v>416</v>
       </c>
       <c r="D16" s="7">
-        <v>432927</v>
+        <v>432928</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>115</v>
@@ -3540,10 +3492,10 @@
         <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>713</v>
@@ -3570,7 +3522,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -3626,13 +3578,13 @@
         <v>2901</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3641,13 +3593,13 @@
         <v>9220</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -3656,19 +3608,19 @@
         <v>12120</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>17</v>
@@ -3677,13 +3629,13 @@
         <v>16642</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3692,13 +3644,13 @@
         <v>20525</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -3707,13 +3659,13 @@
         <v>37167</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3680,13 @@
         <v>64862</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -3746,10 +3698,10 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
@@ -3758,13 +3710,13 @@
         <v>136064</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3731,13 @@
         <v>71460</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>69</v>
@@ -3794,13 +3746,13 @@
         <v>72359</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>139</v>
@@ -3809,13 +3761,13 @@
         <v>143820</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3782,13 @@
         <v>232505</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -3845,13 +3797,13 @@
         <v>206370</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>418</v>
@@ -3860,13 +3812,13 @@
         <v>438875</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3833,13 @@
         <v>163038</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -3896,13 +3848,13 @@
         <v>96736</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>246</v>
@@ -3911,13 +3863,13 @@
         <v>259773</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3937,13 @@
         <v>23349</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -4000,13 +3952,13 @@
         <v>50577</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4015,19 +3967,19 @@
         <v>73925</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>104</v>
@@ -4036,13 +3988,13 @@
         <v>103004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -4051,13 +4003,13 @@
         <v>163424</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>262</v>
@@ -4066,13 +4018,13 @@
         <v>266427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,16 +4036,16 @@
         <v>445</v>
       </c>
       <c r="D27" s="7">
-        <v>451665</v>
+        <v>451664</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>580</v>
@@ -4102,13 +4054,13 @@
         <v>592618</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>1025</v>
@@ -4117,13 +4069,13 @@
         <v>1044283</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4090,13 @@
         <v>418611</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>577</v>
@@ -4153,13 +4105,13 @@
         <v>592990</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>985</v>
@@ -4168,13 +4120,13 @@
         <v>1011601</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4141,13 @@
         <v>1403354</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>1324</v>
@@ -4204,13 +4156,13 @@
         <v>1338401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>2706</v>
@@ -4219,13 +4171,13 @@
         <v>2741755</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4192,13 @@
         <v>876562</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>610</v>
@@ -4255,13 +4207,13 @@
         <v>641188</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>1464</v>
@@ -4270,13 +4222,13 @@
         <v>1517750</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4240,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>69</v>
@@ -4332,7 +4284,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C62FB4-4E7E-4220-97ED-315CEB1B19B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81967C4D-470A-4DEC-A2DA-1ACEA4A9B39C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4368,7 +4320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4475,13 +4427,13 @@
         <v>25064</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -4490,13 +4442,13 @@
         <v>57446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -4508,16 +4460,16 @@
         <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>41</v>
@@ -4526,13 +4478,13 @@
         <v>44092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4541,13 +4493,13 @@
         <v>76927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -4556,13 +4508,13 @@
         <v>121019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4529,13 @@
         <v>137068</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>322</v>
@@ -4592,13 +4544,13 @@
         <v>346188</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>448</v>
@@ -4607,13 +4559,13 @@
         <v>483256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4580,13 @@
         <v>124102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -4643,13 +4595,13 @@
         <v>160350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -4658,13 +4610,13 @@
         <v>284452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4631,13 @@
         <v>296173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -4694,13 +4646,13 @@
         <v>410372</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>657</v>
@@ -4709,13 +4661,13 @@
         <v>706545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4682,13 @@
         <v>346147</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>263</v>
@@ -4745,13 +4697,13 @@
         <v>284523</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>588</v>
@@ -4760,13 +4712,13 @@
         <v>630670</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4786,13 @@
         <v>38483</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -4849,13 +4801,13 @@
         <v>66167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>97</v>
@@ -4864,19 +4816,19 @@
         <v>104650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>46</v>
@@ -4885,13 +4837,13 @@
         <v>47656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4900,13 +4852,13 @@
         <v>67661</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>108</v>
@@ -4915,13 +4867,13 @@
         <v>115318</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4888,13 @@
         <v>246039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>328</v>
@@ -4951,13 +4903,13 @@
         <v>351684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>561</v>
@@ -4969,10 +4921,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4939,13 @@
         <v>252511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -5002,13 +4954,13 @@
         <v>252287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>473</v>
@@ -5017,13 +4969,13 @@
         <v>504798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +4990,13 @@
         <v>640403</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H15" s="7">
         <v>434</v>
@@ -5053,13 +5005,13 @@
         <v>460362</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M15" s="7">
         <v>1037</v>
@@ -5068,13 +5020,13 @@
         <v>1100765</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5041,13 @@
         <v>737734</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>513</v>
@@ -5104,13 +5056,13 @@
         <v>554697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>1210</v>
@@ -5119,13 +5071,13 @@
         <v>1292431</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5145,13 @@
         <v>6095</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5208,13 +5160,13 @@
         <v>12017</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -5223,19 +5175,19 @@
         <v>18112</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>5</v>
@@ -5244,13 +5196,13 @@
         <v>7598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -5259,13 +5211,13 @@
         <v>17193</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -5274,13 +5226,13 @@
         <v>24791</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5247,13 @@
         <v>56006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -5310,13 +5262,13 @@
         <v>57850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -5325,13 +5277,13 @@
         <v>113856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5298,13 @@
         <v>71110</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -5361,13 +5313,13 @@
         <v>55667</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -5376,13 +5328,13 @@
         <v>126777</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5349,13 @@
         <v>146831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>135</v>
@@ -5412,13 +5364,13 @@
         <v>153361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>272</v>
@@ -5427,13 +5379,13 @@
         <v>300192</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5400,13 @@
         <v>193541</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H23" s="7">
         <v>144</v>
@@ -5463,13 +5415,13 @@
         <v>161479</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M23" s="7">
         <v>323</v>
@@ -5478,13 +5430,13 @@
         <v>355020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5504,13 @@
         <v>69642</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -5567,13 +5519,13 @@
         <v>135629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>237</v>
       </c>
       <c r="M25" s="7">
         <v>190</v>
@@ -5582,19 +5534,19 @@
         <v>205271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>92</v>
@@ -5603,13 +5555,13 @@
         <v>99346</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -5618,13 +5570,13 @@
         <v>161781</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>243</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>242</v>
@@ -5633,13 +5585,13 @@
         <v>261128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5606,13 @@
         <v>439113</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>394</v>
+        <v>88</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H27" s="7">
         <v>704</v>
@@ -5669,13 +5621,13 @@
         <v>755723</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M27" s="7">
         <v>1112</v>
@@ -5684,13 +5636,13 @@
         <v>1194836</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,28 +5657,28 @@
         <v>447723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>437</v>
       </c>
       <c r="I28" s="7">
-        <v>468304</v>
+        <v>468303</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>405</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>855</v>
@@ -5735,13 +5687,13 @@
         <v>916026</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,28 +5708,28 @@
         <v>1083408</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>952</v>
       </c>
       <c r="I29" s="7">
-        <v>1024095</v>
+        <v>1024094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="M29" s="7">
         <v>1966</v>
@@ -5786,13 +5738,13 @@
         <v>2107502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5759,13 @@
         <v>1277422</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
         <v>920</v>
@@ -5822,13 +5774,13 @@
         <v>1000699</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="M30" s="7">
         <v>2121</v>
@@ -5837,13 +5789,13 @@
         <v>2278121</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5822,7 @@
         <v>3287</v>
       </c>
       <c r="I31" s="7">
-        <v>3546231</v>
+        <v>3546230</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>69</v>
@@ -5899,7 +5851,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5918,7 +5870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108B3929-D660-4B8D-98D3-8C311F118276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77917890-6F29-45E6-A973-7E01BF4706FC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5935,7 +5887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6042,13 +5994,13 @@
         <v>9808</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -6057,13 +6009,13 @@
         <v>31790</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -6072,19 +6024,19 @@
         <v>41597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
@@ -6093,13 +6045,13 @@
         <v>24074</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
@@ -6108,13 +6060,13 @@
         <v>54224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>423</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>440</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6123,13 +6075,13 @@
         <v>78298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6096,13 @@
         <v>120051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="H6" s="7">
         <v>175</v>
@@ -6159,13 +6111,13 @@
         <v>195792</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="M6" s="7">
         <v>296</v>
@@ -6174,13 +6126,13 @@
         <v>315844</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>433</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>434</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6147,13 @@
         <v>156127</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="H7" s="7">
         <v>208</v>
@@ -6210,13 +6162,13 @@
         <v>225441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>455</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="M7" s="7">
         <v>371</v>
@@ -6225,13 +6177,13 @@
         <v>381569</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6198,13 @@
         <v>225654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>231</v>
@@ -6261,13 +6213,13 @@
         <v>261891</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="M8" s="7">
         <v>461</v>
@@ -6276,13 +6228,13 @@
         <v>487545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>466</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6249,13 @@
         <v>218633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="H9" s="7">
         <v>201</v>
@@ -6312,13 +6264,13 @@
         <v>223405</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="M9" s="7">
         <v>413</v>
@@ -6327,13 +6279,13 @@
         <v>442038</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6353,13 @@
         <v>26227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>479</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -6416,13 +6368,13 @@
         <v>41524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>482</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -6431,19 +6383,19 @@
         <v>67751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>23</v>
@@ -6452,13 +6404,13 @@
         <v>26248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
         <v>49</v>
@@ -6467,13 +6419,13 @@
         <v>51756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>185</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="M12" s="7">
         <v>72</v>
@@ -6482,13 +6434,13 @@
         <v>78005</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>133</v>
+        <v>471</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6455,13 @@
         <v>172540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
         <v>201</v>
@@ -6518,13 +6470,13 @@
         <v>210464</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="M13" s="7">
         <v>362</v>
@@ -6533,13 +6485,13 @@
         <v>383003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6506,13 @@
         <v>299052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>498</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -6569,13 +6521,13 @@
         <v>322879</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>499</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>593</v>
@@ -6584,13 +6536,13 @@
         <v>621931</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>503</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6557,13 @@
         <v>691572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>321</v>
+        <v>490</v>
       </c>
       <c r="H15" s="7">
         <v>611</v>
@@ -6620,13 +6572,13 @@
         <v>632454</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="M15" s="7">
         <v>1265</v>
@@ -6635,13 +6587,13 @@
         <v>1324026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6608,13 @@
         <v>858574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>701</v>
@@ -6671,13 +6623,13 @@
         <v>727173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>1501</v>
@@ -6686,13 +6638,13 @@
         <v>1585748</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6712,13 @@
         <v>3151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>522</v>
+        <v>226</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -6778,10 +6730,10 @@
         <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -6790,19 +6742,19 @@
         <v>7283</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>7</v>
@@ -6811,13 +6763,13 @@
         <v>8555</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>515</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -6826,13 +6778,13 @@
         <v>10783</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>517</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>529</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6844,10 +6796,10 @@
         <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>530</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6814,13 @@
         <v>41598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -6877,13 +6829,13 @@
         <v>64109</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>535</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -6892,13 +6844,13 @@
         <v>105707</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6865,13 @@
         <v>72124</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -6928,13 +6880,13 @@
         <v>87285</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>527</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="M21" s="7">
         <v>153</v>
@@ -6943,13 +6895,13 @@
         <v>159410</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6916,13 @@
         <v>192571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -6979,13 +6931,13 @@
         <v>188590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="M22" s="7">
         <v>351</v>
@@ -6994,13 +6946,13 @@
         <v>381161</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +6967,13 @@
         <v>228887</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -7030,13 +6982,13 @@
         <v>192289</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="M23" s="7">
         <v>395</v>
@@ -7045,13 +6997,13 @@
         <v>421176</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>550</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7071,13 @@
         <v>39185</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -7134,13 +7086,13 @@
         <v>77446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -7149,19 +7101,19 @@
         <v>116631</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>557</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>570</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>56</v>
@@ -7170,13 +7122,13 @@
         <v>58877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>560</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>573</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -7185,13 +7137,13 @@
         <v>116764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>391</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>556</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>561</v>
       </c>
       <c r="M26" s="7">
         <v>161</v>
@@ -7200,13 +7152,13 @@
         <v>175641</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7173,13 @@
         <v>334189</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H27" s="7">
         <v>439</v>
@@ -7236,13 +7188,13 @@
         <v>470365</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="M27" s="7">
         <v>760</v>
@@ -7251,13 +7203,13 @@
         <v>804554</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7224,13 @@
         <v>527304</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="H28" s="7">
         <v>597</v>
@@ -7287,13 +7239,13 @@
         <v>635605</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>588</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="M28" s="7">
         <v>1117</v>
@@ -7302,13 +7254,13 @@
         <v>1162909</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7275,13 @@
         <v>1109796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>596</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7">
         <v>1018</v>
@@ -7338,13 +7290,13 @@
         <v>1082936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="M29" s="7">
         <v>2077</v>
@@ -7353,13 +7305,13 @@
         <v>2192732</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7326,13 @@
         <v>1306094</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>605</v>
+        <v>52</v>
       </c>
       <c r="H30" s="7">
         <v>1089</v>
@@ -7389,13 +7341,13 @@
         <v>1142868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="M30" s="7">
         <v>2309</v>
@@ -7404,13 +7356,13 @@
         <v>2448962</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>321</v>
+        <v>594</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>610</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,7 +7418,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7485,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F4ABF-A990-48A8-B386-1800B29E4FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AE4BC8-C1C5-4876-9AE7-155BF3743CB6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7502,7 +7454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7609,13 +7561,13 @@
         <v>9958</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>612</v>
+        <v>132</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>598</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -7624,13 +7576,13 @@
         <v>19641</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>599</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -7639,19 +7591,19 @@
         <v>29599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>616</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>28</v>
@@ -7660,13 +7612,13 @@
         <v>25110</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="H5" s="7">
         <v>115</v>
@@ -7675,13 +7627,13 @@
         <v>68051</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -7690,13 +7642,13 @@
         <v>93161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7663,13 @@
         <v>74135</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="H6" s="7">
         <v>266</v>
@@ -7726,13 +7678,13 @@
         <v>153059</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="M6" s="7">
         <v>368</v>
@@ -7741,13 +7693,13 @@
         <v>227194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>632</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7714,13 @@
         <v>100850</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="H7" s="7">
         <v>295</v>
@@ -7777,13 +7729,13 @@
         <v>165453</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="M7" s="7">
         <v>424</v>
@@ -7792,13 +7744,13 @@
         <v>266303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7765,13 @@
         <v>163476</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="H8" s="7">
         <v>398</v>
@@ -7828,13 +7780,13 @@
         <v>234763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>648</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="M8" s="7">
         <v>602</v>
@@ -7843,13 +7795,13 @@
         <v>398240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,13 +7816,13 @@
         <v>167268</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="H9" s="7">
         <v>315</v>
@@ -7879,13 +7831,13 @@
         <v>194985</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="M9" s="7">
         <v>528</v>
@@ -7894,13 +7846,13 @@
         <v>362253</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +7920,13 @@
         <v>19019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>645</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -7983,13 +7935,13 @@
         <v>40200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>661</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -7998,19 +7950,19 @@
         <v>59219</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>60</v>
@@ -8019,13 +7971,13 @@
         <v>67252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>649</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="H12" s="7">
         <v>127</v>
@@ -8034,13 +7986,13 @@
         <v>203276</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>666</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>653</v>
       </c>
       <c r="M12" s="7">
         <v>187</v>
@@ -8049,13 +8001,13 @@
         <v>270528</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>655</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8022,13 @@
         <v>203085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="H13" s="7">
         <v>452</v>
@@ -8085,13 +8037,13 @@
         <v>280171</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>662</v>
       </c>
       <c r="M13" s="7">
         <v>676</v>
@@ -8100,13 +8052,13 @@
         <v>483256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8073,13 @@
         <v>243003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>394</v>
@@ -8136,13 +8088,13 @@
         <v>254698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -8151,13 +8103,13 @@
         <v>497701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>671</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>682</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,13 +8124,13 @@
         <v>649202</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H15" s="7">
         <v>906</v>
@@ -8187,13 +8139,13 @@
         <v>628749</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>256</v>
+        <v>676</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="M15" s="7">
         <v>1540</v>
@@ -8202,13 +8154,13 @@
         <v>1277951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>601</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8175,13 @@
         <v>980460</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="H16" s="7">
         <v>987</v>
@@ -8238,13 +8190,13 @@
         <v>841318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="M16" s="7">
         <v>1772</v>
@@ -8253,13 +8205,13 @@
         <v>1821779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,13 +8279,13 @@
         <v>7208</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>530</v>
+        <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>689</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -8342,13 +8294,13 @@
         <v>12367</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>530</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -8357,19 +8309,19 @@
         <v>19575</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>570</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>17</v>
@@ -8378,13 +8330,13 @@
         <v>18340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>569</v>
+        <v>694</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>703</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -8393,13 +8345,13 @@
         <v>27552</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -8408,13 +8360,13 @@
         <v>45891</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,13 +8381,13 @@
         <v>71325</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="H20" s="7">
         <v>148</v>
@@ -8444,13 +8396,13 @@
         <v>97714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="M20" s="7">
         <v>230</v>
@@ -8459,13 +8411,13 @@
         <v>169039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>712</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>714</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,13 +8432,13 @@
         <v>82499</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>717</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -8495,13 +8447,13 @@
         <v>94616</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>719</v>
+        <v>256</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="M21" s="7">
         <v>234</v>
@@ -8510,13 +8462,13 @@
         <v>177115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8531,13 +8483,13 @@
         <v>201127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="H22" s="7">
         <v>347</v>
@@ -8546,13 +8498,13 @@
         <v>238623</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
@@ -8561,13 +8513,13 @@
         <v>439751</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>729</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,13 +8534,13 @@
         <v>292539</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>730</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="H23" s="7">
         <v>305</v>
@@ -8597,13 +8549,13 @@
         <v>243015</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="M23" s="7">
         <v>571</v>
@@ -8612,13 +8564,13 @@
         <v>535555</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8686,13 +8638,13 @@
         <v>36185</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>530</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -8701,13 +8653,13 @@
         <v>72207</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>741</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -8716,19 +8668,19 @@
         <v>108393</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>727</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>105</v>
@@ -8737,13 +8689,13 @@
         <v>110701</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="H26" s="7">
         <v>281</v>
@@ -8752,13 +8704,13 @@
         <v>298879</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="M26" s="7">
         <v>386</v>
@@ -8767,13 +8719,13 @@
         <v>409580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>734</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8788,13 +8740,13 @@
         <v>348545</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="H27" s="7">
         <v>866</v>
@@ -8803,13 +8755,13 @@
         <v>530944</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="M27" s="7">
         <v>1274</v>
@@ -8818,13 +8770,13 @@
         <v>879488</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8839,13 +8791,13 @@
         <v>426352</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>758</v>
+        <v>42</v>
       </c>
       <c r="H28" s="7">
         <v>834</v>
@@ -8854,13 +8806,13 @@
         <v>514767</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="M28" s="7">
         <v>1322</v>
@@ -8869,13 +8821,13 @@
         <v>941119</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,13 +8842,13 @@
         <v>1013806</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>766</v>
+        <v>542</v>
       </c>
       <c r="H29" s="7">
         <v>1651</v>
@@ -8905,13 +8857,13 @@
         <v>1102136</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="M29" s="7">
         <v>2709</v>
@@ -8920,13 +8872,13 @@
         <v>2115941</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,13 +8893,13 @@
         <v>1440268</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="H30" s="7">
         <v>1607</v>
@@ -8956,13 +8908,13 @@
         <v>1279318</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="M30" s="7">
         <v>2871</v>
@@ -8974,10 +8926,10 @@
         <v>53</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>777</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9033,7 +8985,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1201-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1201-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A1E93A-973A-40E7-9F60-3CE2A9A65986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B29C02C-913B-45BB-A325-8964D2B48BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC950C8D-CCD9-4DF4-85AA-3767FD13FB97}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B9F9CC89-3522-446F-9811-D62E566B2058}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="781">
   <si>
     <t>Población según frecuencia de sentirse calmado y tranquilo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1892,502 +1892,496 @@
     <t>Población según frecuencia de sentirse calmado y tranquilo en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
 </sst>
 </file>
@@ -2799,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B7EA6F-F359-4C5C-9F5E-2CF83BEC702C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C75EE-F73C-43CE-B418-A60EC20FA12A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3154,7 +3148,7 @@
         <v>889</v>
       </c>
       <c r="N8" s="7">
-        <v>888435</v>
+        <v>888434</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -3256,7 +3250,7 @@
         <v>2329</v>
       </c>
       <c r="N10" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -3483,7 +3477,7 @@
         <v>769</v>
       </c>
       <c r="D15" s="7">
-        <v>780981</v>
+        <v>780982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>107</v>
@@ -3534,7 +3528,7 @@
         <v>416</v>
       </c>
       <c r="D16" s="7">
-        <v>432927</v>
+        <v>432928</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>116</v>
@@ -3585,7 +3579,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -4099,7 +4093,7 @@
         <v>445</v>
       </c>
       <c r="D27" s="7">
-        <v>451665</v>
+        <v>451664</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>197</v>
@@ -4129,7 +4123,7 @@
         <v>1025</v>
       </c>
       <c r="N27" s="7">
-        <v>1044282</v>
+        <v>1044283</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>203</v>
@@ -4282,7 +4276,7 @@
         <v>1464</v>
       </c>
       <c r="N30" s="7">
-        <v>1517749</v>
+        <v>1517750</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>228</v>
@@ -4303,7 +4297,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -4318,7 +4312,7 @@
         <v>3297</v>
       </c>
       <c r="I31" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -4333,7 +4327,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -4366,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9D6885-F3E4-4D4F-AD8A-B397CBDB0170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A34E8F-E265-41F7-A296-BE7F2D3A0562}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4568,7 +4562,7 @@
         <v>113</v>
       </c>
       <c r="N5" s="7">
-        <v>121019</v>
+        <v>121020</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -4823,7 +4817,7 @@
         <v>2151</v>
       </c>
       <c r="N10" s="7">
-        <v>2308452</v>
+        <v>2308453</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -5131,7 +5125,7 @@
         <v>1210</v>
       </c>
       <c r="N16" s="7">
-        <v>1292431</v>
+        <v>1292430</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>333</v>
@@ -5182,7 +5176,7 @@
         <v>3486</v>
       </c>
       <c r="N17" s="7">
-        <v>3715684</v>
+        <v>3715683</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -5768,7 +5762,7 @@
         <v>1014</v>
       </c>
       <c r="D29" s="7">
-        <v>1083408</v>
+        <v>1083407</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>419</v>
@@ -5870,7 +5864,7 @@
         <v>3199</v>
       </c>
       <c r="D31" s="7">
-        <v>3416654</v>
+        <v>3416653</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -5933,7 +5927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0559F780-49F1-4243-AFE6-D9915FA59A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153EC26D-A45D-489C-8679-7EFB703835FB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7500,7 +7494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C9F01-96DE-4DA8-9D0B-ECABD58581EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523968FD-E828-4DA3-933E-4E6BD7EFEA4E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7621,22 +7615,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>9958</v>
+        <v>9264</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>19641</v>
+        <v>18114</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>618</v>
@@ -7651,7 +7645,7 @@
         <v>52</v>
       </c>
       <c r="N4" s="7">
-        <v>29599</v>
+        <v>27378</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>621</v>
@@ -7660,7 +7654,7 @@
         <v>622</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,10 +7666,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>25110</v>
+        <v>23300</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>623</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>624</v>
@@ -7687,7 +7681,7 @@
         <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>68051</v>
+        <v>59945</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>626</v>
@@ -7702,7 +7696,7 @@
         <v>143</v>
       </c>
       <c r="N5" s="7">
-        <v>93161</v>
+        <v>83245</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>629</v>
@@ -7723,46 +7717,46 @@
         <v>102</v>
       </c>
       <c r="D6" s="7">
-        <v>74135</v>
+        <v>68638</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>632</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H6" s="7">
         <v>266</v>
       </c>
       <c r="I6" s="7">
-        <v>153059</v>
+        <v>137688</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M6" s="7">
         <v>368</v>
       </c>
       <c r="N6" s="7">
-        <v>227194</v>
+        <v>206325</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>637</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>460</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7768,13 @@
         <v>129</v>
       </c>
       <c r="D7" s="7">
-        <v>100850</v>
+        <v>97009</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>640</v>
@@ -7789,7 +7783,7 @@
         <v>295</v>
       </c>
       <c r="I7" s="7">
-        <v>165453</v>
+        <v>149603</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>641</v>
@@ -7804,16 +7798,16 @@
         <v>424</v>
       </c>
       <c r="N7" s="7">
-        <v>266303</v>
+        <v>246612</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>644</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,46 +7819,46 @@
         <v>204</v>
       </c>
       <c r="D8" s="7">
-        <v>163476</v>
+        <v>157933</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="H8" s="7">
         <v>398</v>
       </c>
       <c r="I8" s="7">
-        <v>234763</v>
+        <v>212760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>651</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M8" s="7">
         <v>602</v>
       </c>
       <c r="N8" s="7">
-        <v>398240</v>
+        <v>370693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>653</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>650</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>654</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,46 +7870,46 @@
         <v>213</v>
       </c>
       <c r="D9" s="7">
-        <v>167268</v>
+        <v>157980</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H9" s="7">
         <v>315</v>
       </c>
       <c r="I9" s="7">
-        <v>194985</v>
+        <v>177398</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="M9" s="7">
         <v>528</v>
       </c>
       <c r="N9" s="7">
-        <v>362253</v>
+        <v>335378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,7 +7921,7 @@
         <v>690</v>
       </c>
       <c r="D10" s="7">
-        <v>540797</v>
+        <v>514123</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -7942,7 +7936,7 @@
         <v>1427</v>
       </c>
       <c r="I10" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -7957,7 +7951,7 @@
         <v>2117</v>
       </c>
       <c r="N10" s="7">
-        <v>1376750</v>
+        <v>1269631</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -7980,46 +7974,46 @@
         <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>19019</v>
+        <v>18213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>660</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>661</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>40200</v>
+        <v>37731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>665</v>
+        <v>578</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>662</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>663</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
       </c>
       <c r="N11" s="7">
-        <v>59219</v>
+        <v>55944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>664</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>536</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,46 +8025,46 @@
         <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>67252</v>
+        <v>63989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>393</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>668</v>
+        <v>398</v>
       </c>
       <c r="H12" s="7">
         <v>127</v>
       </c>
       <c r="I12" s="7">
-        <v>203276</v>
+        <v>288993</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>670</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="M12" s="7">
         <v>187</v>
       </c>
       <c r="N12" s="7">
-        <v>270528</v>
+        <v>352982</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>673</v>
+        <v>444</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,46 +8076,46 @@
         <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>203085</v>
+        <v>193015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H13" s="7">
         <v>452</v>
       </c>
       <c r="I13" s="7">
-        <v>280171</v>
+        <v>256003</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="M13" s="7">
         <v>676</v>
       </c>
       <c r="N13" s="7">
-        <v>483256</v>
+        <v>449018</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,46 +8127,46 @@
         <v>270</v>
       </c>
       <c r="D14" s="7">
-        <v>243003</v>
+        <v>235873</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>683</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>588</v>
       </c>
       <c r="H14" s="7">
         <v>394</v>
       </c>
       <c r="I14" s="7">
-        <v>254698</v>
+        <v>234849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>687</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
       </c>
       <c r="N14" s="7">
-        <v>497701</v>
+        <v>470723</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>688</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,46 +8178,46 @@
         <v>634</v>
       </c>
       <c r="D15" s="7">
-        <v>649202</v>
+        <v>645533</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>434</v>
+        <v>686</v>
       </c>
       <c r="H15" s="7">
         <v>906</v>
       </c>
       <c r="I15" s="7">
-        <v>628749</v>
+        <v>584767</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="M15" s="7">
         <v>1540</v>
       </c>
       <c r="N15" s="7">
-        <v>1277951</v>
+        <v>1230300</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>476</v>
+        <v>690</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,46 +8229,46 @@
         <v>785</v>
       </c>
       <c r="D16" s="7">
-        <v>980460</v>
+        <v>1133704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>694</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H16" s="7">
         <v>987</v>
       </c>
       <c r="I16" s="7">
-        <v>841318</v>
+        <v>834480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>696</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M16" s="7">
         <v>1772</v>
       </c>
       <c r="N16" s="7">
-        <v>1821778</v>
+        <v>1968184</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,7 +8280,7 @@
         <v>1992</v>
       </c>
       <c r="D17" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -8301,7 +8295,7 @@
         <v>2919</v>
       </c>
       <c r="I17" s="7">
-        <v>2248410</v>
+        <v>2236824</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -8316,7 +8310,7 @@
         <v>4911</v>
       </c>
       <c r="N17" s="7">
-        <v>4410432</v>
+        <v>4527151</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -8339,13 +8333,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>7208</v>
+        <v>7004</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>538</v>
+        <v>702</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>660</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>703</v>
@@ -8354,28 +8348,28 @@
         <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>12367</v>
+        <v>11436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>666</v>
+        <v>704</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>536</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>19575</v>
+        <v>18439</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>490</v>
@@ -8390,46 +8384,46 @@
         <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>18340</v>
+        <v>17545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>708</v>
+        <v>488</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>27552</v>
+        <v>25259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>709</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>24</v>
+        <v>710</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>45891</v>
+        <v>42804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>711</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>710</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,46 +8435,46 @@
         <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>71325</v>
+        <v>67324</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>499</v>
+        <v>712</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>714</v>
       </c>
       <c r="H20" s="7">
         <v>148</v>
       </c>
       <c r="I20" s="7">
-        <v>97714</v>
+        <v>89979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>714</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>230</v>
       </c>
       <c r="N20" s="7">
-        <v>169039</v>
+        <v>157303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>717</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,46 +8486,46 @@
         <v>89</v>
       </c>
       <c r="D21" s="7">
-        <v>82499</v>
+        <v>78940</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>719</v>
+        <v>498</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>720</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
       </c>
       <c r="I21" s="7">
-        <v>94616</v>
+        <v>87097</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>721</v>
+        <v>549</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>591</v>
+        <v>720</v>
       </c>
       <c r="M21" s="7">
         <v>234</v>
       </c>
       <c r="N21" s="7">
-        <v>177115</v>
+        <v>166037</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>724</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,46 +8537,46 @@
         <v>220</v>
       </c>
       <c r="D22" s="7">
-        <v>201127</v>
+        <v>195402</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>726</v>
+        <v>367</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H22" s="7">
         <v>347</v>
       </c>
       <c r="I22" s="7">
-        <v>238623</v>
+        <v>226132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
       </c>
       <c r="N22" s="7">
-        <v>439751</v>
+        <v>421534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>728</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,46 +8588,46 @@
         <v>266</v>
       </c>
       <c r="D23" s="7">
-        <v>292539</v>
+        <v>280408</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>735</v>
       </c>
       <c r="H23" s="7">
         <v>305</v>
       </c>
       <c r="I23" s="7">
-        <v>243015</v>
+        <v>220560</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>736</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M23" s="7">
         <v>571</v>
       </c>
       <c r="N23" s="7">
-        <v>535555</v>
+        <v>500968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8645,7 +8639,7 @@
         <v>681</v>
       </c>
       <c r="D24" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -8660,7 +8654,7 @@
         <v>1004</v>
       </c>
       <c r="I24" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -8675,7 +8669,7 @@
         <v>1685</v>
       </c>
       <c r="N24" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -8698,46 +8692,46 @@
         <v>40</v>
       </c>
       <c r="D25" s="7">
-        <v>36185</v>
+        <v>34480</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>538</v>
+        <v>739</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
       </c>
       <c r="I25" s="7">
-        <v>72207</v>
+        <v>67281</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>534</v>
+        <v>741</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
       </c>
       <c r="N25" s="7">
-        <v>108393</v>
+        <v>101761</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>81</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,46 +8743,46 @@
         <v>105</v>
       </c>
       <c r="D26" s="7">
-        <v>110701</v>
+        <v>104834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>746</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>747</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H26" s="7">
         <v>281</v>
       </c>
       <c r="I26" s="7">
-        <v>298879</v>
+        <v>374197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M26" s="7">
         <v>386</v>
       </c>
       <c r="N26" s="7">
-        <v>409580</v>
+        <v>479031</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>548</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,46 +8794,46 @@
         <v>408</v>
       </c>
       <c r="D27" s="7">
-        <v>348545</v>
+        <v>328977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H27" s="7">
         <v>866</v>
       </c>
       <c r="I27" s="7">
-        <v>530944</v>
+        <v>483670</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>757</v>
+        <v>149</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>199</v>
+        <v>755</v>
       </c>
       <c r="M27" s="7">
         <v>1274</v>
       </c>
       <c r="N27" s="7">
-        <v>879488</v>
+        <v>812647</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>718</v>
+        <v>673</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>760</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,46 +8845,46 @@
         <v>488</v>
       </c>
       <c r="D28" s="7">
-        <v>426352</v>
+        <v>411822</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>761</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H28" s="7">
         <v>834</v>
       </c>
       <c r="I28" s="7">
-        <v>514767</v>
+        <v>471550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M28" s="7">
         <v>1322</v>
       </c>
       <c r="N28" s="7">
-        <v>941119</v>
+        <v>883372</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>501</v>
+        <v>763</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,46 +8896,46 @@
         <v>1058</v>
       </c>
       <c r="D29" s="7">
-        <v>1013806</v>
+        <v>998868</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>690</v>
+        <v>765</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H29" s="7">
         <v>1651</v>
       </c>
       <c r="I29" s="7">
-        <v>1102136</v>
+        <v>1023659</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>772</v>
       </c>
       <c r="M29" s="7">
         <v>2709</v>
       </c>
       <c r="N29" s="7">
-        <v>2115941</v>
+        <v>2022527</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>774</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8953,46 +8947,46 @@
         <v>1264</v>
       </c>
       <c r="D30" s="7">
-        <v>1440268</v>
+        <v>1572092</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>775</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>777</v>
       </c>
       <c r="H30" s="7">
         <v>1607</v>
       </c>
       <c r="I30" s="7">
-        <v>1279318</v>
+        <v>1232438</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>780</v>
       </c>
       <c r="M30" s="7">
         <v>2871</v>
       </c>
       <c r="N30" s="7">
-        <v>2719586</v>
+        <v>2804531</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>54</v>
+        <v>779</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>782</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,7 +8998,7 @@
         <v>3363</v>
       </c>
       <c r="D31" s="7">
-        <v>3375858</v>
+        <v>3451073</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -9019,7 +9013,7 @@
         <v>5350</v>
       </c>
       <c r="I31" s="7">
-        <v>3798250</v>
+        <v>3652795</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -9034,7 +9028,7 @@
         <v>8713</v>
       </c>
       <c r="N31" s="7">
-        <v>7174108</v>
+        <v>7103869</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
